--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T13:48:42+00:00</t>
+    <t>2023-12-09T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T14:06:07+00:00</t>
+    <t>2024-01-13T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:57:04+00:00</t>
+    <t>2024-01-13T14:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T14:40:05+00:00</t>
+    <t>2024-01-13T15:31:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T15:31:15+00:00</t>
+    <t>2024-01-13T16:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:17:47+00:00</t>
+    <t>2024-01-13T16:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:48:03+00:00</t>
+    <t>2024-02-04T13:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T13:28:51+00:00</t>
+    <t>2024-02-16T09:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
